--- a/test/src/org/tms/io/xls/sampleText.xlsx
+++ b/test/src/org/tms/io/xls/sampleText.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="500" windowWidth="8880" windowHeight="15640" tabRatio="500"/>
+    <workbookView xWindow="6660" yWindow="500" windowWidth="16400" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="ConcatSymVal">Sheet1!$D$6</definedName>
     <definedName name="ConcatVal">Sheet1!$B$6</definedName>
     <definedName name="ExactVal">Sheet1!$B$8</definedName>
     <definedName name="LeftVal">Sheet1!$B$10</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>MID</t>
+  </si>
+  <si>
+    <t>CONCAT &amp;</t>
   </si>
 </sst>
 </file>
@@ -512,13 +516,14 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="3"/>
     <col min="19" max="19" width="12" customWidth="1"/>
@@ -531,8 +536,12 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -598,6 +607,13 @@
         <f>CONCATENATE("Abc", "Def", "Ghi")</f>
         <v>AbcDefGhi</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"Abc" &amp; "Def" &amp; "Ghi"</f>
+        <v>AbcDefGhi</v>
+      </c>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:20">
